--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/43_Karabük_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/43_Karabük_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{501E9742-6D1C-4465-8080-DF0A50B4D62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67817947-FA57-456C-8C30-32B37D529FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64487A36-BED4-4983-875B-7061C005FF56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E46E0F9-D095-41D3-94FF-A84E2CD0D916}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{40A33E56-8B7A-4862-94D8-865B0E5B7CC0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{15AF85F6-4953-4E4B-93E8-B30BF3095496}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{093525BF-9CCC-4E50-8C06-D7E15749F829}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{45F306A6-434F-4AA7-98AC-9192A7B706A2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{C85AD12D-D691-4CCC-9564-09EF231FE98B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{9F394F13-B9A8-4194-84EC-12B120CC9FF3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{E3AC2FD1-9852-45B8-97C2-FAA2A4D711A5}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{74829205-5AA2-4DC6-92DA-AA7436F2274D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0423CFE6-8E1A-4AF2-9B2C-AF3ED85091E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03D9683-1E40-4AF7-9A1E-AB9030874378}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2427,18 +2427,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E030516B-AF74-41E3-90EF-4B01EDD2C06C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F5EF92D5-B42C-4622-BB07-718AA7126838}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{488B1D3F-E9BC-4FF3-AAC8-639234216C18}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{64A9163A-3CD0-46D5-A7C0-BC219182BD2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{978BBF49-FFA7-4609-B187-F9CD0D040E08}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A7C29B80-BD44-4324-B983-2C79810521A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CC56F7B2-E0DD-4C68-AC82-20C3744287A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2206470D-698A-4EE1-B29C-2273F2C6689E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2DF94DF6-4150-498F-9DB1-B74849E4174E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{94E637A2-B98C-4C9E-8A8B-960A6452ECF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D6B01D9E-BFCE-4555-9CBB-11155F7ABC42}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F61416D8-579E-4EED-A951-E4AFBB7AE45A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6AD70B39-F1A4-46C1-9568-600A17D3D8F9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AD2FB05A-1DBC-40CD-AD82-48D2AE9E5A5C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{67A419BE-B348-4D2F-9703-15DC34B3FABE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{60608584-D1BE-446D-9B97-9DA4AA94B208}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A6B62EBE-E7D7-4C6A-9447-39013AC1B99F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7413ADFF-1E89-48CE-A9FF-90B746D65995}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B3D6C0CA-8376-4053-8B12-E0B4F6F987BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CBA8DBBD-4F32-4AB4-A1CA-8F1C5597F56E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E7976FC6-F972-4E06-A54D-6C218BACD56E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{84F4666A-B136-4206-B7DF-74227F1D9344}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{31698C86-26A4-49B8-B0A4-97E5D6C9D165}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FCAB6BB7-0E2F-431D-94E3-80925E802F00}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2451,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54664AF9-6242-4F36-89C6-70B6A33C989E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242490BB-C318-4974-8FEC-3A4A0EEBA715}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3622,18 +3622,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F2F3CE1-7226-4FC1-A727-48C1F7543398}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DC38BCEF-74AA-4DC3-BB92-3D82D950759F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BD2395E2-0BAA-472C-9127-BC003B1765FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D302F8DD-0F3F-4A31-8732-879FC71D1204}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E40DF245-68A8-4E0D-A0C9-96EAA5F16DD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{395D0CA4-5CE3-49B9-9C49-17BE557DDAFA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8CC6238D-3011-49CC-BA51-F7FAAACFF132}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{42C70917-726E-4B72-9CEF-4E0FE0A6A4F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{99EA1A37-E36F-4272-8E7D-65B063EA8A30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{51AE68F2-90C9-4453-8AA7-D9B910ECCE5B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{75DC2955-11A5-41AE-BF51-C39DCA13AED9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{35F40411-287F-468E-93FC-41556077BE9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4CFAE27D-EE94-4319-8181-C77666DDBCFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{51203850-7FDB-4D2C-87E7-526769D229E1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{794588DE-3297-4F5E-8F04-C2D0F659E54A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{137AF2E9-D305-4683-93ED-569EE3612B9C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{660BE41A-7F64-4EF3-83D5-E29059C86A4D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93700176-002D-43A8-8DB5-7EFAC86570DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4A634ED7-8F3B-45C1-A387-6752C4195E7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{66B9FF98-476C-40AD-B931-D68FA9943782}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F57F606C-EF52-48C5-95B5-B2F3147101F7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{91C4254E-FE40-4C7D-8FAB-93CDF4A3E190}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9E876CF1-D640-416E-BB01-0CE73E329A55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{449B3897-DD78-4C1D-B5F4-4380B3A14FA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3646,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E3071F-5BB3-4F83-B0E6-4F9547F6B18F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4B4006-4114-4D36-BC60-F603747401CA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4813,18 +4813,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A9AD8033-5461-4D6D-9F8F-9D6B5F092CD0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BD2901A6-98A8-4456-BAC4-0CEDDB009497}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3669C806-6978-431E-BBDA-098AB6813CD4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CB9E4E7D-2234-4D1F-BB49-4856A7329E41}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{34F5BB5C-9FE7-4DBA-8E70-0C1D3BAA42EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{89B8C5B6-C274-48B0-92AB-7CA4FE7729BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ABCA6C7F-216F-4641-B575-0E268B6AE04F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0631BF1C-6E96-43A7-820D-575C3D83BB48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{641AEA01-1AA2-45F4-A282-41F6AE1465E8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F7CEE5B9-EA02-40DB-A311-7D0F69284E14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{43C38BE3-90F2-44EA-AEC4-F260DCDEE430}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5866B48C-2E41-4D8A-8765-7B3C0E6BC96F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F9098FA0-94C3-4546-B28A-1943F265FCA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C518A827-75A0-42DE-BC76-4B5EBDC014A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FEFF6F5C-5EEE-4B48-ACD4-B2A4B93A8A7E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D5C2868F-F483-445F-9926-FDD0FDDA5E21}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{56BDCDE1-5CE8-431C-B478-647C35FDA770}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2A35E7FE-4044-4B1D-94DA-C500727B3A8B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6ED0A886-A88E-4CEB-99AE-2D9E5C9BF086}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BF8CC307-DA0B-4078-9F67-D73363597C0B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{41CB28CD-2528-4E48-9335-071FDFB2C728}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5D629686-5530-4C70-9208-661770B12DE9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1AE1AC39-02C7-4E0D-AEC7-3088E80DFFCD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8407F326-CC1D-47A5-BACB-67C6D8A0DA26}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4837,7 +4837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC6E150-8ABB-4A9F-8BFD-CF18A1797A4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFC3390-83BD-4394-9AFD-602DEC477F88}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5996,18 +5996,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{005F9181-405B-48CA-9EF7-3857F306F966}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{522EACD8-F4EF-4B93-A36C-42F476B9044E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FC6D2409-3294-4F77-B424-149407B22900}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{61D0EECD-048D-4635-8E00-530D8965BF6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8680AFD4-EA0D-424B-99DA-0CECA708AD2C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BD9AFD73-E020-483D-A02E-E130C9E7FDF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7F95610A-53A6-442E-BC82-7FD2F8BD18DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6012DC29-6A89-447D-9DF4-334DAAD83612}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{841704B3-7320-48E5-97EF-EE6BCF32B0D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4A488FB9-DBA2-4177-A31F-7BD7485CAA25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C11A08CE-441F-4486-99EE-2734E8D587CF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9786EC8B-2CAF-4EBA-8B85-5B937B269171}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DC9CB460-3689-48EF-8898-B7FD38D15442}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{934F4704-5F2B-4915-BAC5-81A812257B27}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{558AE9D8-DFE9-43E1-8FA9-46D177512170}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36D77C7A-2AAC-46AB-A13B-A8B29EF27E3A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8EA6D770-CF0C-47F1-9958-1957D69F3DDA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{724832AE-1DD4-45CF-9722-97A2ADB8946F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{50417971-5EC8-4915-A0F0-540B4A1D9D70}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1DEDA9C5-9493-4498-AB4A-459000A9061C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7EE938C0-077F-4BAC-A024-AA35A1C53974}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7A6CC7F9-D2E5-47F6-86C9-F70E47C1507D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0B8734BE-1D19-44DA-B8E8-227440AD031D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C9881CE7-6CB8-47D6-BB77-9C56C11770EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6020,7 +6020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA9DA8-64A7-4F10-BBA2-D2F87ED45BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF709BAF-448A-4655-94F0-D5BBE9D957EE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7217,18 +7217,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6CB300F5-5F6F-47C0-8006-05D8CE5E3121}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0BFFD450-0093-490E-8250-CED32F4348AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C69B27FD-D4F2-42DA-B98F-D734929C06FC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{821ED2AB-8C4E-4F74-8B36-F9BC16BB667F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{36075E37-938E-40AB-8759-353059E4CAD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{15B9F602-EDC9-43BA-B4B8-7B0C27528738}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1E55DAC4-1475-4D95-8111-FB85835FF134}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{579F1C4D-9B37-48FA-9C22-EB38724348F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4FE3A616-DAEA-4539-9ECD-6AE9DB6B1B98}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{56F9D93B-1C30-47C1-896C-95E5AF4E4480}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6FF33747-A9CD-40BF-9FC9-33EDFB032B91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A0BAF8E4-F661-447D-9697-9966D1FA9DE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{49782D94-EEEA-4A91-BBCD-FB116686E001}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{263FD422-C97A-4596-A78E-7E5A60F0A007}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{89354F37-23CF-403A-A93E-0D5ABD0DAFFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{30FC7E2E-9DC7-4391-B9B1-F35FA4807E38}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ACFE06CF-49D8-43A0-93E5-5DFD299F750C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7AEC2BD1-45BA-4185-8630-8A597D8A6C8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{621681D8-9229-4EAD-A823-E92C9DFCFE62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0A148878-8BAB-441B-9CB0-6CAB256D4FDF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DDFA9D2D-6361-474C-8964-F7E5F27C2A48}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B7F73D96-5E27-42C5-93E4-1E8D2268778D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E9E401C7-546C-419F-A388-7C7A179FBEA7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6FCE4807-7E0A-45D2-A712-E226AD0BB4F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7241,7 +7241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316F141C-2847-48B6-949B-D119D5D5853C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A601C270-FDEC-497F-A81B-9EBE7167C02C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8432,18 +8432,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FEE44AA3-5E7F-413E-A741-776B91FEC9C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{092C43FF-15A9-4548-A7CB-4AB8E46EA033}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{77A28B2F-B772-439A-A45C-0D7DEABA274A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8B27D02B-BC2C-46AE-B32F-614B7FF0385C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9E47AFFF-67AB-4B6F-BA0B-6F7BACADF4B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{871CB927-91E2-4391-AC2F-A1425CF708B0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2B4FC180-4675-4EB4-9421-2C04ED9A0E48}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{17561E49-608A-459E-90D7-CFFC8164C4BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F4E298AA-E845-4C45-BB05-78CF58EBC89E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{77FDF82B-BF03-49E6-8964-25523C9FE450}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DA094364-C3B2-4D0A-90F5-F91226DF701B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{415A3BE4-CC5F-4C27-9B95-E541EDC3B2CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{448C6CF4-9977-4A45-AB26-E1B82A3BA9FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3EDB93AF-E598-4EE9-BDE4-DEFABE4F2AFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2A89F107-9542-48E3-9A81-D66CFC526D06}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9A3D126F-8F81-4B91-8DBB-238CB70C06F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DDEEB66E-01D3-4808-838C-A79D344737AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FE6E18E1-D7A1-4D80-BDD9-A2B79D15C237}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B04ED2C9-3ACC-4AD8-9528-CCB7C4EBECD8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{193265E6-038A-4357-8599-A4B53DE9F567}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CB9E1F31-3838-4EC6-9CF7-A3FBBC3B61D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8E5303D0-8892-401E-B3E4-488BF16F6CBA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8BCA78B6-D32B-4983-BD0C-67A7B10C8725}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C3757975-9C85-4C94-8E0C-08965E56A561}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8456,7 +8456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCC444-808A-4F7F-9A07-BBA7BEB5776A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B63E441-7FF4-4BE0-9B24-7FEF36948E0D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9649,18 +9649,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6E223A52-8354-4041-B969-7DC880D89D15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6E94E86E-D848-4D9B-9B76-5E2EE834FB09}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9ADF63C6-705F-4AB9-9946-A9EF76359516}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D8DE2B14-EE9C-4B21-89B4-DEEA4782BD8C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{805C95F3-C850-431F-A624-0676C50D9251}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B098C269-6C95-4068-83F2-40373D631759}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C054545-56CA-459A-A80F-36E39D80B041}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BEE44D38-D325-4CB7-A2E3-7F610B939177}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1DCEE56B-7887-4D35-BCA7-F8CDA86F4CB5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C1750588-511A-485E-9638-70849991B2C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5303F7CD-0502-4C7F-8E43-94C6B5E4406E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DA31D6D5-7FC8-4B6F-A6F5-6F703C536372}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8FD6D5DA-50ED-49FF-9B02-2CA8D7AE0CFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4E06D05D-5CE5-4EB2-A74B-558887B00196}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F867041E-A788-49F1-9350-D938FBED5C73}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8571B507-4765-4C2F-A3A1-90750D8A023F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D466071C-E92C-4997-8B45-1C1D4BE34488}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D7ADE4BF-1304-4A5A-AB0F-56B56FB5C45A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7EDE1D92-1985-48B0-A3EE-077A67D1FE6E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7FF95CD8-26F8-4B68-8F4C-450247DC7B7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D426FB6C-2722-4AC5-B4FB-CE97BF27CE5F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A686B815-4F20-4F34-8E75-7250F9D6B603}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A038F3D6-EC7A-4BF0-B6ED-5810DB46FFE0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6BC4B967-485A-4A4E-A3B6-74CB00677324}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9673,7 +9673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CA67AD-0ECE-428A-A0DB-604CAE5FAE7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF580C3-997D-43F2-9B3C-20FA7C13F868}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10858,18 +10858,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A6E04525-7711-4302-9A0A-3107274049EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9F0E9531-2F86-4624-B167-5441A47ABDE2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C8017C89-A19D-4183-BF4C-7AAF876D6758}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{111407EA-0079-416A-B4EC-B52185C9D14D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D5B6DA97-67B5-4D4A-B54C-D70A0B9B7930}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{08BDDB58-5985-4BED-AF2E-81CE6DDC8C9B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{004C5FB3-9471-4672-9AB8-EB281BA87655}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3372513C-05AE-4D81-A986-F11D6C4BC24F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7EADB4F1-4401-462C-A925-8AD0DD90CA9A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B055ADE3-5975-4FE8-903F-166E60EA46E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A5E20AE4-E082-4601-9AEC-D4E9B6D3E81E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E72F500B-34A1-4366-8657-A939C4F65792}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A1F1677C-8C40-4DE5-9F44-505BDCF88957}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{081FAFE1-8650-4F5C-A5E1-1754D6564AF1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{68AD27B6-A37F-412C-914F-15A6039DB686}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5B1389BF-D85B-44AE-AE13-A7300C046681}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FA62B018-8E27-41CF-8FA3-774645501042}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B6F0DD75-F73A-4F9F-9930-249F30393DCC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7A8A9A29-5EEC-474F-A148-A3CB24CC66D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E23CF0A1-15F8-444D-ADDF-E27E46ABB7F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7D24D9FD-76CD-414F-B65B-523BAEF4CF42}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DC07C739-7505-40C7-BC24-E4F9C5B1BDF6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{45979596-C1B6-4EDD-AB1B-0EAE7D1B1F75}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7C257C60-310B-4D49-8D6D-1C41DFCF6785}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10882,7 +10882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B233AE9-7B86-4D10-952A-1C4F7B526049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0D47E2-78A8-4D4D-827C-EEEF17C35A09}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12067,18 +12067,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3248BE52-B7C5-4DCD-8B78-AFB63402CB42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A7677B56-9E8B-44F8-A73F-3CE3E8AC7E19}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2E14F2F3-0E3F-4702-9265-3F871945B22B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{31E0CA55-876A-4F00-8975-8750A3AAF490}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E415995E-A679-4B02-8FA0-39E45D904151}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{26C44AC0-AC09-431A-8522-31A3FF375331}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{06BC00C1-9976-4B27-A940-8B1478114C22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{67A9018A-8B8D-4675-9A38-D4D1C00C5254}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1BEBB744-7F7F-4EBC-AA22-E78BE1074948}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1750CB19-608C-4FDF-AC0B-519D8515F5C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9E8F4161-063C-464F-872C-75C597D1EF81}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FF1E1435-34D4-4607-AFE1-C311E2D6E87E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5D9A5C4C-7F8F-48EB-A7B0-5EBC363562D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9450DB29-C1A7-46B0-A705-34F9A968C5AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{950B88BE-2847-4769-B7C8-EA64E02F9447}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{69940978-5D18-4DEC-AFB1-AA2865EDEB33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8D9A5E28-75F7-4459-A34C-A4FB6E26BF2E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2321C449-664E-4F5B-8422-074759CCB1C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F696C7E7-5F83-4F2C-A682-6A8F06C70167}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8EE0A193-3447-4834-83F4-D2B3FCAF3415}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E1F3FF28-2C5F-4826-B928-1BEA9B1F2BED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C96B8E9F-92B1-4EF9-A917-9072D20834CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A7A066D4-E3BA-462B-B568-78BE4E50ADF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B2A8388A-1118-43C0-B02A-8D6817FD9703}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12091,7 +12091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F7993B-CB28-4BC0-A460-A5DA87E67B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7B49E8-7AA2-4B0E-9DDB-CAEEC0BF8A13}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13276,18 +13276,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0D159CF7-7DF8-4352-AF8D-F77D52072732}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{02A28E2B-E8B5-43CB-8212-139658D9E373}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7B26F7A4-6C41-419C-838D-079B31406A39}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E0769A3B-96EE-4E63-BFB5-15BE499D5459}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{838F2987-AB7B-41E6-B18C-4B3904102164}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E176A8CD-FA3C-4F90-8E8E-39CB7D2150CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C98DD1E5-41BF-4826-AFC0-49A7FBBBABFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{86310A6C-457A-41C1-923E-C3FAE30EEAB3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E5D13DBB-764E-4C34-827A-BFFAC5820F8B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DF3BFA1B-FF87-473F-86EE-1553A321D3E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{07D88583-0CEF-4C33-9C41-4C4533006B36}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C3AB67DB-7800-41D2-9FD3-0C0D193DFD87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7E3F6280-E2E0-4EEE-AB57-D070734520E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B3461FD5-6A16-474C-A3DC-8FA2C5AE7B6B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4173BB2E-23F2-4EFD-8C5D-F710FB2397F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0E4A5060-319F-46D4-BF2A-BC4B377309D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0E7DC4AB-559E-4060-97C6-E47716321374}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{833D096D-E6E9-4F90-8610-1805B96E0258}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9B31AE6F-69EA-4BFD-B387-0B0B9A4376D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{975D67E2-FBA0-43E3-8EA6-95F36E607019}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{768DE496-09CB-44AE-943D-93B15544401A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E02D8965-3E05-4667-9CC2-E4C31B8DD980}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{518D8971-C56A-42C7-A86B-E6DE77545E90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CC798C7B-DD5F-4810-BE21-5AC0FAB9FDD9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13300,7 +13300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D69F97-164B-4085-8BCC-D323CBC28644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27696AD9-4828-485E-9E9C-1423CDCA7A33}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14485,18 +14485,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{32AD26CC-FEC5-43C5-B67A-46F2C1DBA25A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2A2C129A-8B1F-4099-B3BD-D00BEC0A7F29}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B1A28AFE-E8CF-4BC5-AB5C-62E5710EC190}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{75B41354-A79A-4C3D-A878-D30B8326BC96}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{44AA0638-EA23-4D5B-9401-9470A04EBB07}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3A955567-B11B-4AC5-9746-D60F820CA47E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0BE29D6A-7591-4227-8353-6B1E866C21ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B84A1065-E02E-4D63-A2AE-0580A488E038}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CDC23E65-C4A6-4EAD-8DFF-E0714711FC7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C1B363BB-F164-4D72-B605-6FB51CAC1F65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{18D5278D-F798-456C-ADD1-3F15462038AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2D3603C9-4B65-4C86-98A9-6888946DE640}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BB4B486D-F00E-4953-8BB3-44C74C17578E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{78C04306-7F79-4DEA-B07C-C04CBCFAB1B3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F679814D-66B4-4B4E-B339-78D97E4ACCC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9ACEF505-2506-4AD3-9A3E-61B4AE6D7E25}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6742AEF5-289E-4E30-A0F0-794319E0F2CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5D178C00-855A-4423-BB29-1255E1DD9932}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F0B5C825-FE1C-45C9-8027-716195A69F1F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0A4A3DC5-D17C-4F61-ACBF-22633B33B361}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DB2EFA2B-EB6D-419F-8840-5E9C4A726BED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F260529B-52AB-4663-B860-393A08A9E692}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BEE710E5-EC53-48E7-A2BE-2CD4F679C10A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A59CCEF-BBA4-4FE0-AF45-2272D3BB469E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14509,7 +14509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A42361-CAEB-47B8-96B8-7BCCC35E4CDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30BDCBC-B264-491C-9BFF-B473F44325BC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15694,18 +15694,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{76546075-AD05-44E0-A2CA-526B1AC40A30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{620C2A8A-D8CA-4AD3-B32C-39682C6ECB19}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9A1BA7C3-73E3-4BE6-AE1D-296A704186B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{692A0D1C-E077-44C1-8EA2-53E070FE2C40}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6A7DD4D1-2A3D-4C4B-8FD7-E4E380287B68}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F430874F-062C-4F84-BD27-1B7D7EC3681D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{55C4B507-D0DA-4C19-B4F4-869C659D3FEC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2BEFCA1A-74CE-4DED-A123-D246EC9ACDB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8D37F90C-D2CE-4298-BDD7-11F8B78D4635}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C464E51A-45AB-4F7E-91A7-070C0623D174}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CC8D4610-A9E5-416F-A1FE-CF79DE3D180B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BAD496FA-3EEC-49A4-A84F-3D669A5C2518}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{19A25D0A-2D4E-410C-BEDA-17E538FEEC3F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7C044803-9AFB-4AE3-85A4-C1687C660735}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5A8A13FD-3991-46D4-9412-6B9B23C7DB69}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B4AD4133-D712-4789-BD9B-4063D466E5E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AA20D9F0-B5A6-4852-A426-75B38F46CC53}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8E371551-EEEA-49A6-A593-1EB66596436C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A7A132E7-9327-429F-B7D0-CCF833147450}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3A888AF1-90DD-4B22-B05B-C9C67BB13D68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0EEF337D-9A90-4836-A2CC-B44FCD358AEA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{587C15DD-2F14-4134-AA67-4954878D5BD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F6954099-2434-4EBF-B33A-0062039F9A86}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F24A4D56-104F-4941-99E1-C6DD6BFDB94F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
